--- a/data/schedule-template.xlsx
+++ b/data/schedule-template.xlsx
@@ -8,21 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shonlittle/Documents/GitHub/shonlittle/studio-schedule/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67991800-3452-EA4C-8060-641154585B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58A3724-59BC-C949-9915-60E5F322F17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17920" yWindow="-20760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
-    <sheet name="teachers" sheetId="2" r:id="rId2"/>
-    <sheet name="rooms" sheetId="3" r:id="rId3"/>
+    <sheet name="room_availability" sheetId="2" r:id="rId2"/>
+    <sheet name="teacher_availability" sheetId="3" r:id="rId3"/>
+    <sheet name="room_configurations" sheetId="4" r:id="rId4"/>
+    <sheet name="class_preferences" sheetId="5" r:id="rId5"/>
+    <sheet name="teacher_specializations" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">class_preferences!$A$1:$E$33</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="58">
+  <si>
+    <t>class_id</t>
+  </si>
   <si>
     <t>class_name</t>
   </si>
@@ -42,121 +51,157 @@
     <t>duration</t>
   </si>
   <si>
-    <t>preferred_days</t>
-  </si>
-  <si>
-    <t>preferred_time_ranges</t>
-  </si>
-  <si>
-    <t>preferred_rooms</t>
-  </si>
-  <si>
-    <t>preferred_teachers</t>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>Ballet</t>
+  </si>
+  <si>
+    <t>Jazz</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>room_name</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>Room 1</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>15:15</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>Room 2</t>
+  </si>
+  <si>
+    <t>Room 3</t>
+  </si>
+  <si>
+    <t>Room 4</t>
+  </si>
+  <si>
+    <t>Room 1+2</t>
+  </si>
+  <si>
+    <t>Room 3+4</t>
+  </si>
+  <si>
+    <t>teacher_id</t>
+  </si>
+  <si>
+    <t>teacher_name</t>
+  </si>
+  <si>
+    <t>is_combined</t>
+  </si>
+  <si>
+    <t>component_rooms</t>
+  </si>
+  <si>
+    <t>Room 1,Room 2</t>
+  </si>
+  <si>
+    <t>Room 3,Room 4</t>
+  </si>
+  <si>
+    <t>preference_type</t>
+  </si>
+  <si>
+    <t>preference_value</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+  </si>
+  <si>
+    <t>specialization_type</t>
+  </si>
+  <si>
+    <t>specialization_value</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>2-18</t>
   </si>
   <si>
     <t>Tiny Tappers</t>
   </si>
   <si>
-    <t>Tap</t>
-  </si>
-  <si>
-    <t>Monday,Tuesday</t>
-  </si>
-  <si>
-    <t>15:15-17:00</t>
-  </si>
-  <si>
-    <t>Room 1,Room 2</t>
-  </si>
-  <si>
-    <t>Alex Kim,Sara Lee</t>
-  </si>
-  <si>
     <t>Mini Ballet</t>
   </si>
   <si>
-    <t>Ballet</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>16:00-18:00</t>
-  </si>
-  <si>
-    <t>Room 3</t>
+    <t>Jazz Juniors</t>
+  </si>
+  <si>
+    <t>Alex Kim</t>
   </si>
   <si>
     <t>Jordan Smith</t>
   </si>
   <si>
-    <t>Jazz Juniors</t>
-  </si>
-  <si>
-    <t>Jazz</t>
-  </si>
-  <si>
-    <t>Thursday,Friday</t>
-  </si>
-  <si>
-    <t>17:00-19:00</t>
-  </si>
-  <si>
-    <t>Room 1+2,Room 3+4</t>
-  </si>
-  <si>
-    <t>Taylor Ray,Chris Po</t>
-  </si>
-  <si>
-    <t>teacher_name</t>
-  </si>
-  <si>
-    <t>availability</t>
-  </si>
-  <si>
-    <t>Alex Kim</t>
-  </si>
-  <si>
-    <t>Monday:15:15-19:00,Tuesday:15:15-19:00</t>
-  </si>
-  <si>
-    <t>Wednesday:16:00-20:00</t>
-  </si>
-  <si>
     <t>Taylor Ray</t>
   </si>
   <si>
-    <t>Thursday:17:00-20:00,Friday:17:00-20:00</t>
-  </si>
-  <si>
-    <t>room_name</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>Room 1</t>
-  </si>
-  <si>
-    <t>Monday:15:15-21:00,Tuesday:15:15-21:00</t>
-  </si>
-  <si>
-    <t>group 1</t>
-  </si>
-  <si>
-    <t>Room 2</t>
-  </si>
-  <si>
-    <t>Room 1+2</t>
-  </si>
-  <si>
-    <t>Wednesday:15:15-21:00,Thursday:15:15-21:00</t>
-  </si>
-  <si>
-    <t>group 2</t>
-  </si>
-  <si>
-    <t>Room 3+4</t>
+    <t>Satruday</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>12-99</t>
   </si>
 </sst>
 </file>
@@ -213,11 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,20 +567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="10" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,110 +598,74 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>0.75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -668,46 +675,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -717,84 +964,979 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.54166666666666663</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="D9" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>